--- a/Test/test.xlsx
+++ b/Test/test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raffa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="405">
   <si>
     <t>Descrizione</t>
   </si>
@@ -50,9 +50,6 @@
     <t>richiesta senza specificare tipo capsula</t>
   </si>
   <si>
-    <t>non fa niente</t>
-  </si>
-  <si>
     <t>richiesta senza specificare tipo capsula e  non numeri</t>
   </si>
   <si>
@@ -260,24 +257,6 @@
     <t>solo gruppo</t>
   </si>
   <si>
-    <t>email e gruppo</t>
-  </si>
-  <si>
-    <t>credito e gruppo</t>
-  </si>
-  <si>
-    <t>password e gruppo</t>
-  </si>
-  <si>
-    <t>email, credito e gruppo</t>
-  </si>
-  <si>
-    <t>email password e gruppo</t>
-  </si>
-  <si>
-    <t>aggiunta completa</t>
-  </si>
-  <si>
     <t>4.1.2</t>
   </si>
   <si>
@@ -296,39 +275,9 @@
     <t>4.1.7</t>
   </si>
   <si>
-    <t>4.1.2.1</t>
-  </si>
-  <si>
-    <t>email non formattata</t>
-  </si>
-  <si>
     <t>non esegue</t>
   </si>
   <si>
-    <t>email formattata</t>
-  </si>
-  <si>
-    <t>4.1.2.2</t>
-  </si>
-  <si>
-    <t>credito positivo</t>
-  </si>
-  <si>
-    <t>credito negativo</t>
-  </si>
-  <si>
-    <t>credito positivo ed email formattata</t>
-  </si>
-  <si>
-    <t>credito negativo ed email formattata</t>
-  </si>
-  <si>
-    <t>credito positivo ed email non formattata</t>
-  </si>
-  <si>
-    <t>credito negativo ed email non formattata</t>
-  </si>
-  <si>
     <t>4.1.5.1</t>
   </si>
   <si>
@@ -338,27 +287,12 @@
     <t>4.1.5.3</t>
   </si>
   <si>
-    <t>4.1.5.4</t>
-  </si>
-  <si>
     <t>4.1.3.1</t>
   </si>
   <si>
     <t>4.1.3.2</t>
   </si>
   <si>
-    <t>4.1.6.1</t>
-  </si>
-  <si>
-    <t>4.1.6.2</t>
-  </si>
-  <si>
-    <t>valore negativo</t>
-  </si>
-  <si>
-    <t>valore positivo</t>
-  </si>
-  <si>
     <t>4.1.7.1</t>
   </si>
   <si>
@@ -368,9 +302,6 @@
     <t>4.1.7.3</t>
   </si>
   <si>
-    <t>4.1.7.4</t>
-  </si>
-  <si>
     <t>prezzo acquisto numero negativo</t>
   </si>
   <si>
@@ -465,6 +396,849 @@
   </si>
   <si>
     <t>aggiungi con prezzo acquisto e prezzo vendita</t>
+  </si>
+  <si>
+    <t>3.1.9.1</t>
+  </si>
+  <si>
+    <t>3.1.9.1.1</t>
+  </si>
+  <si>
+    <t>3.1.9.1.2</t>
+  </si>
+  <si>
+    <t>3.1.9.1.3</t>
+  </si>
+  <si>
+    <t>3.1.9.2</t>
+  </si>
+  <si>
+    <t>3.1.9.2.1</t>
+  </si>
+  <si>
+    <t>3.1.9.2.2</t>
+  </si>
+  <si>
+    <t>3.1.9.2.3</t>
+  </si>
+  <si>
+    <t>3.1.9.3.1</t>
+  </si>
+  <si>
+    <t>3.1.9.3</t>
+  </si>
+  <si>
+    <t>3.1.9.3.2</t>
+  </si>
+  <si>
+    <t>3.1.9.3.3</t>
+  </si>
+  <si>
+    <t>3.1.10</t>
+  </si>
+  <si>
+    <t>3.1.10.1</t>
+  </si>
+  <si>
+    <t>3.1.10.2</t>
+  </si>
+  <si>
+    <t>3.1.10.3</t>
+  </si>
+  <si>
+    <t>3.1.10.1.2</t>
+  </si>
+  <si>
+    <t>3.1.10.1.3</t>
+  </si>
+  <si>
+    <t>3.1.10.1.4</t>
+  </si>
+  <si>
+    <t>3.1.10.2.1</t>
+  </si>
+  <si>
+    <t>3.1.10.2.2</t>
+  </si>
+  <si>
+    <t>3.1.10.2.3</t>
+  </si>
+  <si>
+    <t>3.1.10.3.1</t>
+  </si>
+  <si>
+    <t>3.1.10.3.2</t>
+  </si>
+  <si>
+    <t>3.1.10.3.3</t>
+  </si>
+  <si>
+    <t>aggiungi con prezzo acquisto e quantità</t>
+  </si>
+  <si>
+    <t>3.1.11</t>
+  </si>
+  <si>
+    <t>aggiungi con prezzo vendita e quantita</t>
+  </si>
+  <si>
+    <t>3.1.11.1</t>
+  </si>
+  <si>
+    <t>3.1.11.1.1</t>
+  </si>
+  <si>
+    <t>3.1.11.1.2</t>
+  </si>
+  <si>
+    <t>3.1.11.1.3</t>
+  </si>
+  <si>
+    <t>3.1.11.2</t>
+  </si>
+  <si>
+    <t>3.1.11.3</t>
+  </si>
+  <si>
+    <t>3.1.11.2.1</t>
+  </si>
+  <si>
+    <t>3.1.11.2.2</t>
+  </si>
+  <si>
+    <t>3.1.11.2.3</t>
+  </si>
+  <si>
+    <t>3.1.11.3.1</t>
+  </si>
+  <si>
+    <t>3.1.11.3.2</t>
+  </si>
+  <si>
+    <t>3.1.11.3.3</t>
+  </si>
+  <si>
+    <t>3.1.12</t>
+  </si>
+  <si>
+    <t>aggiungi con nome, prezzo acquisto e prezzo vendita</t>
+  </si>
+  <si>
+    <t>2.1.3.1</t>
+  </si>
+  <si>
+    <t>2.1.3.2</t>
+  </si>
+  <si>
+    <t>3.1.12.1</t>
+  </si>
+  <si>
+    <t>3.1.12.2</t>
+  </si>
+  <si>
+    <t>3.1.12.3</t>
+  </si>
+  <si>
+    <t>3.1.12.1.1</t>
+  </si>
+  <si>
+    <t>3.1.12.1.2</t>
+  </si>
+  <si>
+    <t>3.1.12.1.3</t>
+  </si>
+  <si>
+    <t>3.1.12.2.1</t>
+  </si>
+  <si>
+    <t>3.1.12.2.2</t>
+  </si>
+  <si>
+    <t>3.1.12.2.3</t>
+  </si>
+  <si>
+    <t>3.1.12.3.1</t>
+  </si>
+  <si>
+    <t>3.1.12.3.2</t>
+  </si>
+  <si>
+    <t>3.1.12.3.3</t>
+  </si>
+  <si>
+    <t>3.1.13</t>
+  </si>
+  <si>
+    <t>aggiungi con nome, prezzo acquisto e quantita</t>
+  </si>
+  <si>
+    <t>3.1.13.1</t>
+  </si>
+  <si>
+    <t>3.1.13.1.1</t>
+  </si>
+  <si>
+    <t>3.1.13.1.2</t>
+  </si>
+  <si>
+    <t>3.1.13.1.3</t>
+  </si>
+  <si>
+    <t>3.1.13.2</t>
+  </si>
+  <si>
+    <t>3.1.13.2.1</t>
+  </si>
+  <si>
+    <t>3.1.13.2.2</t>
+  </si>
+  <si>
+    <t>3.1.13.2.3</t>
+  </si>
+  <si>
+    <t>3.1.13.3</t>
+  </si>
+  <si>
+    <t>3.1.13.3.1</t>
+  </si>
+  <si>
+    <t>3.1.13.3.2</t>
+  </si>
+  <si>
+    <t>3.1.13.3.3</t>
+  </si>
+  <si>
+    <t>3.1.14</t>
+  </si>
+  <si>
+    <t>3.1.14.1</t>
+  </si>
+  <si>
+    <t>3.1.14.2</t>
+  </si>
+  <si>
+    <t>3.1.14.3</t>
+  </si>
+  <si>
+    <t>3.1.14.1.1</t>
+  </si>
+  <si>
+    <t>3.1.14.1.2</t>
+  </si>
+  <si>
+    <t>3.1.14.1.3</t>
+  </si>
+  <si>
+    <t>3.1.14.2.1</t>
+  </si>
+  <si>
+    <t>3.1.14.2.2</t>
+  </si>
+  <si>
+    <t>3.1.14.2.3</t>
+  </si>
+  <si>
+    <t>3.1.14.3.1</t>
+  </si>
+  <si>
+    <t>3.1.14.3.2</t>
+  </si>
+  <si>
+    <t>3.1.14.3.3</t>
+  </si>
+  <si>
+    <t>3.1.15</t>
+  </si>
+  <si>
+    <t>aggiungi con nome, prezzo vendita e quantita</t>
+  </si>
+  <si>
+    <t>aggiungi con nome, prezzo acquisto, prezzo vendita e quantita</t>
+  </si>
+  <si>
+    <t>3.1.15.1</t>
+  </si>
+  <si>
+    <t>3.1.15.2</t>
+  </si>
+  <si>
+    <t>3.1.15.3</t>
+  </si>
+  <si>
+    <t>3.1.15.1.1</t>
+  </si>
+  <si>
+    <t>3.1.15.1.2</t>
+  </si>
+  <si>
+    <t>3.1.15.1.3</t>
+  </si>
+  <si>
+    <t>3.1.15.1.1.1</t>
+  </si>
+  <si>
+    <t>3.1.15.1.1.2</t>
+  </si>
+  <si>
+    <t>3.1.15.1.1.3</t>
+  </si>
+  <si>
+    <t>3.1.15.1.2.1</t>
+  </si>
+  <si>
+    <t>3.1.15.1.2.2</t>
+  </si>
+  <si>
+    <t>3.1.15.1.2.3</t>
+  </si>
+  <si>
+    <t>3.1.15.1.3.1</t>
+  </si>
+  <si>
+    <t>3.1.15.1.3.2</t>
+  </si>
+  <si>
+    <t>3.1.15.1.3.3</t>
+  </si>
+  <si>
+    <t>3.1.15.2.1</t>
+  </si>
+  <si>
+    <t>3.1.15.2.1.1</t>
+  </si>
+  <si>
+    <t>3.1.15.2.1.2</t>
+  </si>
+  <si>
+    <t>3.1.15.2.1.3</t>
+  </si>
+  <si>
+    <t>3.1.15.2.2</t>
+  </si>
+  <si>
+    <t>3.1.15.2.2.1</t>
+  </si>
+  <si>
+    <t>3.1.15.2.2.2</t>
+  </si>
+  <si>
+    <t>3.1.15.2.2.3</t>
+  </si>
+  <si>
+    <t>3.1.15.2.3</t>
+  </si>
+  <si>
+    <t>3.1.15.2.3.1</t>
+  </si>
+  <si>
+    <t>3.1.15.2.3.2</t>
+  </si>
+  <si>
+    <t>3.1.15.2.3.3</t>
+  </si>
+  <si>
+    <t>3.1.15.3.1</t>
+  </si>
+  <si>
+    <t>3.1.15.3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.15.3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.15.3.1.3</t>
+  </si>
+  <si>
+    <t>3.1.15.3.2</t>
+  </si>
+  <si>
+    <t>3.1.15.3.2.1</t>
+  </si>
+  <si>
+    <t>3.1.15.3.2.2</t>
+  </si>
+  <si>
+    <t>3.1.15.3.2.3</t>
+  </si>
+  <si>
+    <t>3.1.15.3.3</t>
+  </si>
+  <si>
+    <t>3.1.15.3.3.1</t>
+  </si>
+  <si>
+    <t>3.1.15.3.3.2</t>
+  </si>
+  <si>
+    <t>3.1.15.3.3.3</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Rimuovi capsula</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Modifica capsula</t>
+  </si>
+  <si>
+    <t>modifica con solo prezzo vendita</t>
+  </si>
+  <si>
+    <t>modifica con solo prezzo acquisto</t>
+  </si>
+  <si>
+    <t>modifica con solo quantità</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
+  </si>
+  <si>
+    <t>3.3.4</t>
+  </si>
+  <si>
+    <t>modifica con prezzo acquisto e prezzo vendita</t>
+  </si>
+  <si>
+    <t>modifica con prezzo acquisto e quantita</t>
+  </si>
+  <si>
+    <t>modifica con prezzo vendita e quantità</t>
+  </si>
+  <si>
+    <t>3.3.2.1</t>
+  </si>
+  <si>
+    <t>3.3.2.2</t>
+  </si>
+  <si>
+    <t>3.3.2.3</t>
+  </si>
+  <si>
+    <t>3.3.3.1</t>
+  </si>
+  <si>
+    <t>3.3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.3.3</t>
+  </si>
+  <si>
+    <t>3.3.4.1</t>
+  </si>
+  <si>
+    <t>3.3.4.2</t>
+  </si>
+  <si>
+    <t>3.3.4.3</t>
+  </si>
+  <si>
+    <t>modifica con prezzo acquisto, prezzo vendita e quantita</t>
+  </si>
+  <si>
+    <t>3.3.5</t>
+  </si>
+  <si>
+    <t>3.3.6</t>
+  </si>
+  <si>
+    <t>3.3.7</t>
+  </si>
+  <si>
+    <t>3.3.4.1.1</t>
+  </si>
+  <si>
+    <t>3.3.4.1.2</t>
+  </si>
+  <si>
+    <t>3.3.4.1.3</t>
+  </si>
+  <si>
+    <t>3.3.4.2.1</t>
+  </si>
+  <si>
+    <t>3.3.4.2.2</t>
+  </si>
+  <si>
+    <t>3.3.4.2.3</t>
+  </si>
+  <si>
+    <t>3.3.4.3.1</t>
+  </si>
+  <si>
+    <t>3.3.4.3.2</t>
+  </si>
+  <si>
+    <t>3.3.4.3.3</t>
+  </si>
+  <si>
+    <t>3.3.5.1</t>
+  </si>
+  <si>
+    <t>3.3.5.1.1</t>
+  </si>
+  <si>
+    <t>3.3.5.1.2</t>
+  </si>
+  <si>
+    <t>3.3.5.1.3</t>
+  </si>
+  <si>
+    <t>3.3.5.2</t>
+  </si>
+  <si>
+    <t>3.3.5.2.1</t>
+  </si>
+  <si>
+    <t>3.3.5.2.2</t>
+  </si>
+  <si>
+    <t>3.3.5.2.3</t>
+  </si>
+  <si>
+    <t>3.3.5.3</t>
+  </si>
+  <si>
+    <t>3.3.5.3.1</t>
+  </si>
+  <si>
+    <t>3.3.5.3.2</t>
+  </si>
+  <si>
+    <t>3.3.5.3.3</t>
+  </si>
+  <si>
+    <t>3.3.6.1</t>
+  </si>
+  <si>
+    <t>3.3.6.1.1</t>
+  </si>
+  <si>
+    <t>3.3.6.1.2</t>
+  </si>
+  <si>
+    <t>3.3.6.1.3</t>
+  </si>
+  <si>
+    <t>3.3.6.2</t>
+  </si>
+  <si>
+    <t>3.3.6.2.1</t>
+  </si>
+  <si>
+    <t>3.3.6.2.2</t>
+  </si>
+  <si>
+    <t>3.3.6.2.3</t>
+  </si>
+  <si>
+    <t>3.3.6.3</t>
+  </si>
+  <si>
+    <t>3.3.6.3.1</t>
+  </si>
+  <si>
+    <t>3.3.6.3.2</t>
+  </si>
+  <si>
+    <t>3.3.6.3.3</t>
+  </si>
+  <si>
+    <t>3.3.7.1</t>
+  </si>
+  <si>
+    <t>3.3.7.2</t>
+  </si>
+  <si>
+    <t>3.3.7.3</t>
+  </si>
+  <si>
+    <t>3.3.7.1.1</t>
+  </si>
+  <si>
+    <t>3.3.7.1.1.1</t>
+  </si>
+  <si>
+    <t>3.3.7.1.1.2</t>
+  </si>
+  <si>
+    <t>3.3.7.1.1.3</t>
+  </si>
+  <si>
+    <t>3.3.7.1.2</t>
+  </si>
+  <si>
+    <t>3.3.7.1.2.1</t>
+  </si>
+  <si>
+    <t>3.3.7.1.2.2</t>
+  </si>
+  <si>
+    <t>3.3.7.1.2.3</t>
+  </si>
+  <si>
+    <t>3.3.7.1.3</t>
+  </si>
+  <si>
+    <t>3.3.7.1.3.1</t>
+  </si>
+  <si>
+    <t>3.3.7.1.3.2</t>
+  </si>
+  <si>
+    <t>3.3.7.1.3.3</t>
+  </si>
+  <si>
+    <t>3.3.7.2.1</t>
+  </si>
+  <si>
+    <t>3.3.7.2.1.1</t>
+  </si>
+  <si>
+    <t>3.3.7.2.1.2</t>
+  </si>
+  <si>
+    <t>3.3.7.2.1.3</t>
+  </si>
+  <si>
+    <t>3.3.7.2.2</t>
+  </si>
+  <si>
+    <t>3.3.7.2.2.1</t>
+  </si>
+  <si>
+    <t>3.3.7.2.2.2</t>
+  </si>
+  <si>
+    <t>3.3.7.2.2.3</t>
+  </si>
+  <si>
+    <t>3.3.7.2.3</t>
+  </si>
+  <si>
+    <t>3.3.7.2.3.1</t>
+  </si>
+  <si>
+    <t>3.3.7.2.3.2</t>
+  </si>
+  <si>
+    <t>3.3.7.2.3.3</t>
+  </si>
+  <si>
+    <t>3.3.7.3.1</t>
+  </si>
+  <si>
+    <t>3.3.7.3.1.1</t>
+  </si>
+  <si>
+    <t>3.3.7.3.1.2</t>
+  </si>
+  <si>
+    <t>3.3.7.3.1.3</t>
+  </si>
+  <si>
+    <t>3.3.7.3.2</t>
+  </si>
+  <si>
+    <t>3.3.7.3.2.1</t>
+  </si>
+  <si>
+    <t>3.3.7.3.2.2</t>
+  </si>
+  <si>
+    <t>3.3.7.3.2.3</t>
+  </si>
+  <si>
+    <t>3.3.7.3.3</t>
+  </si>
+  <si>
+    <t>3.3.7.3.3.1</t>
+  </si>
+  <si>
+    <t>3.3.7.3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.7.3.3.3</t>
+  </si>
+  <si>
+    <t>valore numero positivo</t>
+  </si>
+  <si>
+    <t>2.1.3.3</t>
+  </si>
+  <si>
+    <t>valore testo</t>
+  </si>
+  <si>
+    <t>2.1.5.1</t>
+  </si>
+  <si>
+    <t>2.1.5.2</t>
+  </si>
+  <si>
+    <t>2.1.5.3</t>
+  </si>
+  <si>
+    <t>2.2.2.1</t>
+  </si>
+  <si>
+    <t>2.2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.2.3</t>
+  </si>
+  <si>
+    <t>gruppo e email</t>
+  </si>
+  <si>
+    <t>gruppo e credito</t>
+  </si>
+  <si>
+    <t>gruppo e password</t>
+  </si>
+  <si>
+    <t>credito testo</t>
+  </si>
+  <si>
+    <t>credito numero positivo</t>
+  </si>
+  <si>
+    <t>credito numero negativo</t>
+  </si>
+  <si>
+    <t>4.1.3.3</t>
+  </si>
+  <si>
+    <t>4.1.8</t>
+  </si>
+  <si>
+    <t>gruppo, email e credito</t>
+  </si>
+  <si>
+    <t>credito, numero positivo</t>
+  </si>
+  <si>
+    <t>credito, numero negativo</t>
+  </si>
+  <si>
+    <t>gruppo, email e password</t>
+  </si>
+  <si>
+    <t>gruppo, credito e password</t>
+  </si>
+  <si>
+    <t>gruppo, email, password e credito</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Rimuovi utente</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Aggiorna credito utente</t>
+  </si>
+  <si>
+    <t>Modifica dati utente</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Test struttura Hardware</t>
+  </si>
+  <si>
+    <t>Capsula nei separatori</t>
+  </si>
+  <si>
+    <t>Le capsule cadono senza fermarsi</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Vi è un contenitore alla fine</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Vi è una protezione per non far cadere le capsule in avanti?</t>
+  </si>
+  <si>
+    <t>È modulabile</t>
+  </si>
+  <si>
+    <t>È gestito il cablaggio</t>
+  </si>
+  <si>
+    <t>Si attacca alla parete</t>
+  </si>
+  <si>
+    <t>Il tablet ha un posto definito</t>
+  </si>
+  <si>
+    <t>Il raspberry ha un posto definito</t>
+  </si>
+  <si>
+    <t>Cambiare nome utente</t>
+  </si>
+  <si>
+    <t>Cambiare cognome utente</t>
+  </si>
+  <si>
+    <t>Cambiare nome e cognome utente</t>
+  </si>
+  <si>
+    <t>Cambiare password</t>
+  </si>
+  <si>
+    <t>cambare sia password che nome</t>
+  </si>
+  <si>
+    <t>cambare sia password che cognome</t>
+  </si>
+  <si>
+    <t>cambare sia password che nome e cognome</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Test Raspberry</t>
+  </si>
+  <si>
+    <t>Collegamento wifi</t>
+  </si>
+  <si>
+    <t>Comunica con il servo motore</t>
+  </si>
+  <si>
+    <t>Hosta il sito</t>
+  </si>
+  <si>
+    <t>Comunica con il tablet</t>
+  </si>
+  <si>
+    <t>Raggiungibile in rete</t>
+  </si>
+  <si>
+    <t>Il servo motore espelle le capsule</t>
   </si>
 </sst>
 </file>
@@ -528,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -537,6 +1311,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,18 +1622,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E85"/>
+  <dimension ref="B2:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E324" sqref="E324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -891,10 +1668,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -902,864 +1679,4091 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>29</v>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>348</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="C22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>352</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>348</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>354</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>348</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>355</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>356</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" t="s">
-        <v>92</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" t="s">
-        <v>92</v>
+        <v>54</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" t="s">
-        <v>92</v>
-      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" t="s">
-        <v>134</v>
+      <c r="B40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" t="s">
-        <v>92</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E42" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E43" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E46" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="E49" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="E50" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E53" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E54" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E55" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>120</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="B63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>75</v>
+        <v>115</v>
+      </c>
+      <c r="C64" t="s">
+        <v>122</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E65" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="D66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" t="s">
-        <v>40</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E70" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E71" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E76" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
-      </c>
-      <c r="D77" t="s">
         <v>92</v>
       </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="D78" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E79" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D80" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E80" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
-      </c>
-      <c r="D82" t="s">
-        <v>40</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>83</v>
+      </c>
+      <c r="E83" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" t="s">
         <v>114</v>
       </c>
-      <c r="C85" t="s">
-        <v>100</v>
-      </c>
       <c r="D85" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" t="s">
+        <v>83</v>
+      </c>
+      <c r="E88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" t="s">
+        <v>114</v>
+      </c>
+      <c r="D89" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" t="s">
         <v>92</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" t="s">
+        <v>83</v>
+      </c>
+      <c r="E91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" t="s">
+        <v>83</v>
+      </c>
+      <c r="E96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" t="s">
+        <v>83</v>
+      </c>
+      <c r="E97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" t="s">
+        <v>83</v>
+      </c>
+      <c r="E98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" t="s">
+        <v>114</v>
+      </c>
+      <c r="D102" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" t="s">
+        <v>83</v>
+      </c>
+      <c r="E104" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E105" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" t="s">
+        <v>165</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C109" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" t="s">
+        <v>83</v>
+      </c>
+      <c r="E109" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C110" t="s">
+        <v>103</v>
+      </c>
+      <c r="D110" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C111" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111" t="s">
+        <v>83</v>
+      </c>
+      <c r="E111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C113" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" t="s">
+        <v>83</v>
+      </c>
+      <c r="E113" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C114" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114" t="s">
+        <v>83</v>
+      </c>
+      <c r="E114" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C115" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" t="s">
+        <v>83</v>
+      </c>
+      <c r="E115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C116" t="s">
+        <v>92</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" t="s">
+        <v>102</v>
+      </c>
+      <c r="D117" t="s">
+        <v>83</v>
+      </c>
+      <c r="E117" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" t="s">
+        <v>103</v>
+      </c>
+      <c r="D118" t="s">
+        <v>83</v>
+      </c>
+      <c r="E118" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" t="s">
+        <v>83</v>
+      </c>
+      <c r="E119" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" t="s">
+        <v>181</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C121" t="s">
+        <v>69</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C122" t="s">
+        <v>113</v>
+      </c>
+      <c r="D122" t="s">
+        <v>83</v>
+      </c>
+      <c r="E122" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C123" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123" t="s">
+        <v>83</v>
+      </c>
+      <c r="E123" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C124" t="s">
+        <v>114</v>
+      </c>
+      <c r="D124" t="s">
+        <v>83</v>
+      </c>
+      <c r="E124" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C126" t="s">
+        <v>113</v>
+      </c>
+      <c r="D126" t="s">
+        <v>83</v>
+      </c>
+      <c r="E126" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C127" t="s">
+        <v>112</v>
+      </c>
+      <c r="D127" t="s">
+        <v>83</v>
+      </c>
+      <c r="E127" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C128" t="s">
+        <v>114</v>
+      </c>
+      <c r="D128" t="s">
+        <v>83</v>
+      </c>
+      <c r="E128" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C129" t="s">
+        <v>92</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C130" t="s">
+        <v>113</v>
+      </c>
+      <c r="D130" t="s">
+        <v>83</v>
+      </c>
+      <c r="E130" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C131" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" t="s">
+        <v>83</v>
+      </c>
+      <c r="E131" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C132" t="s">
+        <v>114</v>
+      </c>
+      <c r="D132" t="s">
+        <v>83</v>
+      </c>
+      <c r="E132" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C133" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C134" t="s">
+        <v>102</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C135" t="s">
+        <v>113</v>
+      </c>
+      <c r="D135" t="s">
+        <v>83</v>
+      </c>
+      <c r="E135" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C136" t="s">
+        <v>112</v>
+      </c>
+      <c r="D136" t="s">
+        <v>83</v>
+      </c>
+      <c r="E136" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C137" t="s">
+        <v>114</v>
+      </c>
+      <c r="D137" t="s">
+        <v>83</v>
+      </c>
+      <c r="E137" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C138" t="s">
+        <v>103</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C139" t="s">
+        <v>113</v>
+      </c>
+      <c r="D139" t="s">
+        <v>83</v>
+      </c>
+      <c r="E139" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C140" t="s">
+        <v>112</v>
+      </c>
+      <c r="D140" t="s">
+        <v>83</v>
+      </c>
+      <c r="E140" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C141" t="s">
+        <v>114</v>
+      </c>
+      <c r="D141" t="s">
+        <v>83</v>
+      </c>
+      <c r="E141" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" t="s">
+        <v>104</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C143" t="s">
+        <v>113</v>
+      </c>
+      <c r="D143" t="s">
+        <v>83</v>
+      </c>
+      <c r="E143" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C144" t="s">
+        <v>112</v>
+      </c>
+      <c r="D144" t="s">
+        <v>83</v>
+      </c>
+      <c r="E144" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C145" t="s">
+        <v>114</v>
+      </c>
+      <c r="D145" t="s">
+        <v>83</v>
+      </c>
+      <c r="E145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C146" t="s">
+        <v>209</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C147" t="s">
+        <v>69</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C148" t="s">
+        <v>102</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C149" t="s">
+        <v>113</v>
+      </c>
+      <c r="D149" t="s">
+        <v>83</v>
+      </c>
+      <c r="E149" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C150" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" t="s">
+        <v>83</v>
+      </c>
+      <c r="E150" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C151" t="s">
+        <v>114</v>
+      </c>
+      <c r="D151" t="s">
+        <v>83</v>
+      </c>
+      <c r="E151" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C152" t="s">
+        <v>103</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C153" t="s">
+        <v>113</v>
+      </c>
+      <c r="D153" t="s">
+        <v>83</v>
+      </c>
+      <c r="E153" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C154" t="s">
+        <v>112</v>
+      </c>
+      <c r="D154" t="s">
+        <v>83</v>
+      </c>
+      <c r="E154" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C155" t="s">
+        <v>114</v>
+      </c>
+      <c r="D155" t="s">
+        <v>83</v>
+      </c>
+      <c r="E155" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C156" t="s">
+        <v>104</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C157" t="s">
+        <v>113</v>
+      </c>
+      <c r="D157" t="s">
+        <v>83</v>
+      </c>
+      <c r="E157" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C158" t="s">
+        <v>112</v>
+      </c>
+      <c r="D158" t="s">
+        <v>83</v>
+      </c>
+      <c r="E158" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C159" t="s">
+        <v>114</v>
+      </c>
+      <c r="D159" t="s">
+        <v>83</v>
+      </c>
+      <c r="E159" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C160" t="s">
+        <v>70</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C161" t="s">
+        <v>102</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C162" t="s">
+        <v>113</v>
+      </c>
+      <c r="D162" t="s">
+        <v>83</v>
+      </c>
+      <c r="E162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C163" t="s">
+        <v>112</v>
+      </c>
+      <c r="D163" t="s">
+        <v>83</v>
+      </c>
+      <c r="E163" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C164" t="s">
+        <v>114</v>
+      </c>
+      <c r="D164" t="s">
+        <v>83</v>
+      </c>
+      <c r="E164" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C165" t="s">
+        <v>103</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C166" t="s">
+        <v>113</v>
+      </c>
+      <c r="D166" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C167" t="s">
+        <v>112</v>
+      </c>
+      <c r="D167" t="s">
+        <v>83</v>
+      </c>
+      <c r="E167" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C168" t="s">
+        <v>114</v>
+      </c>
+      <c r="D168" t="s">
+        <v>83</v>
+      </c>
+      <c r="E168" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C169" t="s">
+        <v>104</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C170" t="s">
+        <v>113</v>
+      </c>
+      <c r="D170" t="s">
+        <v>83</v>
+      </c>
+      <c r="E170" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C171" t="s">
+        <v>112</v>
+      </c>
+      <c r="D171" t="s">
+        <v>83</v>
+      </c>
+      <c r="E171" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C172" t="s">
+        <v>114</v>
+      </c>
+      <c r="D172" t="s">
+        <v>83</v>
+      </c>
+      <c r="E172" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C173" t="s">
+        <v>92</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C174" t="s">
+        <v>102</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C175" t="s">
+        <v>113</v>
+      </c>
+      <c r="D175" t="s">
+        <v>83</v>
+      </c>
+      <c r="E175" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C176" t="s">
+        <v>112</v>
+      </c>
+      <c r="D176" t="s">
+        <v>83</v>
+      </c>
+      <c r="E176" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C177" t="s">
+        <v>114</v>
+      </c>
+      <c r="D177" t="s">
+        <v>83</v>
+      </c>
+      <c r="E177" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C178" t="s">
+        <v>103</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C179" t="s">
+        <v>113</v>
+      </c>
+      <c r="D179" t="s">
+        <v>83</v>
+      </c>
+      <c r="E179" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C180" t="s">
+        <v>112</v>
+      </c>
+      <c r="D180" t="s">
+        <v>83</v>
+      </c>
+      <c r="E180" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C181" t="s">
+        <v>114</v>
+      </c>
+      <c r="D181" t="s">
+        <v>83</v>
+      </c>
+      <c r="E181" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C182" t="s">
+        <v>104</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C183" t="s">
+        <v>113</v>
+      </c>
+      <c r="D183" t="s">
+        <v>83</v>
+      </c>
+      <c r="E183" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C184" t="s">
+        <v>112</v>
+      </c>
+      <c r="D184" t="s">
+        <v>83</v>
+      </c>
+      <c r="E184" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C185" t="s">
+        <v>114</v>
+      </c>
+      <c r="D185" t="s">
+        <v>83</v>
+      </c>
+      <c r="E185" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C188" t="s">
+        <v>49</v>
+      </c>
+      <c r="D188" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C189" t="s">
+        <v>254</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C190" t="s">
+        <v>69</v>
+      </c>
+      <c r="D190" t="s">
+        <v>83</v>
+      </c>
+      <c r="E190" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C191" t="s">
+        <v>70</v>
+      </c>
+      <c r="D191" t="s">
+        <v>83</v>
+      </c>
+      <c r="E191" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C192" t="s">
+        <v>92</v>
+      </c>
+      <c r="D192" t="s">
+        <v>83</v>
+      </c>
+      <c r="E192" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C193" t="s">
+        <v>253</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C194" t="s">
+        <v>102</v>
+      </c>
+      <c r="D194" t="s">
+        <v>83</v>
+      </c>
+      <c r="E194" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C195" t="s">
+        <v>103</v>
+      </c>
+      <c r="D195" t="s">
+        <v>83</v>
+      </c>
+      <c r="E195" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C196" t="s">
+        <v>104</v>
+      </c>
+      <c r="D196" t="s">
+        <v>83</v>
+      </c>
+      <c r="E196" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C197" t="s">
+        <v>255</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C198" t="s">
+        <v>113</v>
+      </c>
+      <c r="D198" t="s">
+        <v>83</v>
+      </c>
+      <c r="E198" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C199" t="s">
+        <v>112</v>
+      </c>
+      <c r="D199" t="s">
+        <v>83</v>
+      </c>
+      <c r="E199" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C200" t="s">
+        <v>114</v>
+      </c>
+      <c r="D200" t="s">
+        <v>83</v>
+      </c>
+      <c r="E200" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C201" t="s">
+        <v>260</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C202" t="s">
+        <v>69</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C203" t="s">
+        <v>102</v>
+      </c>
+      <c r="D203" t="s">
+        <v>83</v>
+      </c>
+      <c r="E203" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C204" t="s">
+        <v>103</v>
+      </c>
+      <c r="D204" t="s">
+        <v>83</v>
+      </c>
+      <c r="E204" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C205" t="s">
+        <v>104</v>
+      </c>
+      <c r="D205" t="s">
+        <v>83</v>
+      </c>
+      <c r="E205" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C206" t="s">
+        <v>70</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C207" t="s">
+        <v>102</v>
+      </c>
+      <c r="D207" t="s">
+        <v>83</v>
+      </c>
+      <c r="E207" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C208" t="s">
+        <v>103</v>
+      </c>
+      <c r="D208" t="s">
+        <v>83</v>
+      </c>
+      <c r="E208" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C209" t="s">
+        <v>104</v>
+      </c>
+      <c r="D209" t="s">
+        <v>83</v>
+      </c>
+      <c r="E209" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C210" t="s">
+        <v>92</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C211" t="s">
+        <v>102</v>
+      </c>
+      <c r="D211" t="s">
+        <v>83</v>
+      </c>
+      <c r="E211" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C212" t="s">
+        <v>103</v>
+      </c>
+      <c r="D212" t="s">
+        <v>83</v>
+      </c>
+      <c r="E212" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C213" t="s">
+        <v>104</v>
+      </c>
+      <c r="D213" t="s">
+        <v>83</v>
+      </c>
+      <c r="E213" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C214" t="s">
+        <v>261</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C215" t="s">
+        <v>69</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C216" t="s">
+        <v>113</v>
+      </c>
+      <c r="D216" t="s">
+        <v>83</v>
+      </c>
+      <c r="E216" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C217" t="s">
+        <v>112</v>
+      </c>
+      <c r="D217" t="s">
+        <v>83</v>
+      </c>
+      <c r="E217" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C218" t="s">
+        <v>114</v>
+      </c>
+      <c r="D218" t="s">
+        <v>83</v>
+      </c>
+      <c r="E218" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C219" t="s">
+        <v>70</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C220" t="s">
+        <v>113</v>
+      </c>
+      <c r="D220" t="s">
+        <v>83</v>
+      </c>
+      <c r="E220" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C221" t="s">
+        <v>112</v>
+      </c>
+      <c r="D221" t="s">
+        <v>83</v>
+      </c>
+      <c r="E221" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C222" t="s">
+        <v>114</v>
+      </c>
+      <c r="D222" t="s">
+        <v>83</v>
+      </c>
+      <c r="E222" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C223" t="s">
+        <v>92</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C224" t="s">
+        <v>113</v>
+      </c>
+      <c r="D224" t="s">
+        <v>83</v>
+      </c>
+      <c r="E224" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C225" t="s">
+        <v>112</v>
+      </c>
+      <c r="D225" t="s">
+        <v>83</v>
+      </c>
+      <c r="E225" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C226" t="s">
+        <v>114</v>
+      </c>
+      <c r="D226" t="s">
+        <v>83</v>
+      </c>
+      <c r="E226" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C227" t="s">
+        <v>262</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C228" t="s">
+        <v>102</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C229" t="s">
+        <v>113</v>
+      </c>
+      <c r="D229" t="s">
+        <v>83</v>
+      </c>
+      <c r="E229" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C230" t="s">
+        <v>112</v>
+      </c>
+      <c r="D230" t="s">
+        <v>83</v>
+      </c>
+      <c r="E230" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C231" t="s">
+        <v>114</v>
+      </c>
+      <c r="D231" t="s">
+        <v>83</v>
+      </c>
+      <c r="E231" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C232" t="s">
+        <v>103</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C233" t="s">
+        <v>113</v>
+      </c>
+      <c r="D233" t="s">
+        <v>83</v>
+      </c>
+      <c r="E233" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C234" t="s">
+        <v>112</v>
+      </c>
+      <c r="D234" t="s">
+        <v>83</v>
+      </c>
+      <c r="E234" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C235" t="s">
+        <v>114</v>
+      </c>
+      <c r="D235" t="s">
+        <v>83</v>
+      </c>
+      <c r="E235" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C236" t="s">
+        <v>104</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C237" t="s">
+        <v>113</v>
+      </c>
+      <c r="D237" t="s">
+        <v>83</v>
+      </c>
+      <c r="E237" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C238" t="s">
+        <v>112</v>
+      </c>
+      <c r="D238" t="s">
+        <v>83</v>
+      </c>
+      <c r="E238" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C239" t="s">
+        <v>114</v>
+      </c>
+      <c r="D239" t="s">
+        <v>83</v>
+      </c>
+      <c r="E239" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C240" t="s">
+        <v>272</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C241" t="s">
+        <v>69</v>
+      </c>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C242" t="s">
+        <v>102</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C243" t="s">
+        <v>113</v>
+      </c>
+      <c r="D243" t="s">
+        <v>83</v>
+      </c>
+      <c r="E243" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C244" t="s">
+        <v>112</v>
+      </c>
+      <c r="D244" t="s">
+        <v>83</v>
+      </c>
+      <c r="E244" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C245" t="s">
+        <v>114</v>
+      </c>
+      <c r="D245" t="s">
+        <v>83</v>
+      </c>
+      <c r="E245" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C246" t="s">
+        <v>103</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C247" t="s">
+        <v>113</v>
+      </c>
+      <c r="D247" t="s">
+        <v>83</v>
+      </c>
+      <c r="E247" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C248" t="s">
+        <v>112</v>
+      </c>
+      <c r="D248" t="s">
+        <v>83</v>
+      </c>
+      <c r="E248" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C249" t="s">
+        <v>114</v>
+      </c>
+      <c r="D249" t="s">
+        <v>83</v>
+      </c>
+      <c r="E249" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C250" t="s">
+        <v>104</v>
+      </c>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B251" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C251" t="s">
+        <v>113</v>
+      </c>
+      <c r="D251" t="s">
+        <v>83</v>
+      </c>
+      <c r="E251" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B252" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C252" t="s">
+        <v>112</v>
+      </c>
+      <c r="D252" t="s">
+        <v>83</v>
+      </c>
+      <c r="E252" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B253" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C253" t="s">
+        <v>114</v>
+      </c>
+      <c r="D253" t="s">
+        <v>83</v>
+      </c>
+      <c r="E253" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C254" t="s">
+        <v>70</v>
+      </c>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C255" t="s">
+        <v>102</v>
+      </c>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C256" t="s">
+        <v>113</v>
+      </c>
+      <c r="D256" t="s">
+        <v>83</v>
+      </c>
+      <c r="E256" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C257" t="s">
+        <v>112</v>
+      </c>
+      <c r="D257" t="s">
+        <v>83</v>
+      </c>
+      <c r="E257" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C258" t="s">
+        <v>114</v>
+      </c>
+      <c r="D258" t="s">
+        <v>83</v>
+      </c>
+      <c r="E258" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C259" t="s">
+        <v>103</v>
+      </c>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B260" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C260" t="s">
+        <v>113</v>
+      </c>
+      <c r="D260" t="s">
+        <v>39</v>
+      </c>
+      <c r="E260" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C261" t="s">
+        <v>112</v>
+      </c>
+      <c r="D261" t="s">
+        <v>83</v>
+      </c>
+      <c r="E261" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C262" t="s">
+        <v>114</v>
+      </c>
+      <c r="D262" t="s">
+        <v>83</v>
+      </c>
+      <c r="E262" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C263" t="s">
+        <v>104</v>
+      </c>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C264" t="s">
+        <v>113</v>
+      </c>
+      <c r="D264" t="s">
+        <v>83</v>
+      </c>
+      <c r="E264" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B265" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C265" t="s">
+        <v>112</v>
+      </c>
+      <c r="D265" t="s">
+        <v>83</v>
+      </c>
+      <c r="E265" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C266" t="s">
+        <v>114</v>
+      </c>
+      <c r="D266" t="s">
+        <v>83</v>
+      </c>
+      <c r="E266" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C267" t="s">
+        <v>92</v>
+      </c>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B268" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C268" t="s">
+        <v>102</v>
+      </c>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C269" t="s">
+        <v>113</v>
+      </c>
+      <c r="D269" t="s">
+        <v>83</v>
+      </c>
+      <c r="E269" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B270" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C270" t="s">
+        <v>112</v>
+      </c>
+      <c r="D270" t="s">
+        <v>83</v>
+      </c>
+      <c r="E270" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B271" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C271" t="s">
+        <v>114</v>
+      </c>
+      <c r="D271" t="s">
+        <v>83</v>
+      </c>
+      <c r="E271" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C272" t="s">
+        <v>103</v>
+      </c>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C273" t="s">
+        <v>113</v>
+      </c>
+      <c r="D273" t="s">
+        <v>83</v>
+      </c>
+      <c r="E273" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C274" t="s">
+        <v>112</v>
+      </c>
+      <c r="D274" t="s">
+        <v>83</v>
+      </c>
+      <c r="E274" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C275" t="s">
+        <v>114</v>
+      </c>
+      <c r="D275" t="s">
+        <v>83</v>
+      </c>
+      <c r="E275" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C276" t="s">
+        <v>104</v>
+      </c>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C277" t="s">
+        <v>113</v>
+      </c>
+      <c r="D277" t="s">
+        <v>83</v>
+      </c>
+      <c r="E277" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C278" t="s">
+        <v>112</v>
+      </c>
+      <c r="D278" t="s">
+        <v>83</v>
+      </c>
+      <c r="E278" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C279" t="s">
+        <v>114</v>
+      </c>
+      <c r="D279" t="s">
+        <v>83</v>
+      </c>
+      <c r="E279" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B281" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B282" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B283" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D283" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B284" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B285" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B286" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D286" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B287" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D287" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E287" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B288" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D288" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E288" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B289" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D289" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E289" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B290" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B291" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D291" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E291" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B292" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B293" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D293" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E293" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B294" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E294" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B295" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B296" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D296" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E296" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B297" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D297" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E297" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B298" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D298" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B299" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D299" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B300" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D300" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E300" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B301" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B302" s="8"/>
+      <c r="C302" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D302" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E302" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B303" s="8"/>
+      <c r="C303" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D303" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E303" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B304" s="8"/>
+      <c r="C304" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D304" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E304" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B305" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B306" s="8"/>
+      <c r="C306" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E306" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B307" s="8"/>
+      <c r="C307" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D307" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E307" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B308" s="8"/>
+      <c r="C308" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E308" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B309" s="8"/>
+      <c r="C309" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E309" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B310" s="8"/>
+      <c r="C310" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B311" s="8"/>
+      <c r="C311" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E311" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B312" s="8"/>
+      <c r="C312" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E312" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B313" s="8"/>
+      <c r="C313" s="7"/>
+      <c r="D313" s="7"/>
+      <c r="E313" s="7"/>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B314" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D314" s="2"/>
+      <c r="E314" s="2"/>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B315" s="8"/>
+      <c r="C315" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D315" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E315" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B316" s="8"/>
+      <c r="C316" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D316" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E316" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C317" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D317" t="s">
+        <v>381</v>
+      </c>
+      <c r="E317" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C318" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D318" t="s">
+        <v>381</v>
+      </c>
+      <c r="E318" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C319" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D319" t="s">
+        <v>381</v>
+      </c>
+      <c r="E319" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C320" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D320" t="s">
+        <v>381</v>
+      </c>
+      <c r="E320" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C321" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D321" t="s">
+        <v>381</v>
+      </c>
+      <c r="E321" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C322" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D322" t="s">
+        <v>381</v>
+      </c>
+      <c r="E322" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C323" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D323" t="s">
+        <v>381</v>
+      </c>
+      <c r="E323" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C324" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D324" t="s">
+        <v>381</v>
+      </c>
+      <c r="E324" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C325" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D325" t="s">
+        <v>381</v>
+      </c>
+      <c r="E325" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B327" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2"/>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C328" t="s">
+        <v>399</v>
+      </c>
+      <c r="D328" t="s">
+        <v>381</v>
+      </c>
+      <c r="E328" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C329" t="s">
+        <v>400</v>
+      </c>
+      <c r="D329" t="s">
+        <v>381</v>
+      </c>
+      <c r="E329" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C330" t="s">
+        <v>401</v>
+      </c>
+      <c r="D330" t="s">
+        <v>381</v>
+      </c>
+      <c r="E330" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C331" t="s">
+        <v>402</v>
+      </c>
+      <c r="D331" t="s">
+        <v>381</v>
+      </c>
+      <c r="E331" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C332" t="s">
+        <v>403</v>
+      </c>
+      <c r="D332" t="s">
+        <v>381</v>
+      </c>
+      <c r="E332" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
